--- a/target/classes/DataFile.xlsx
+++ b/target/classes/DataFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Programs\POM_Framework\reasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="LogInDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Kiran</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>9902160387</t>
+  </si>
+  <si>
+    <t>9902160388</t>
+  </si>
+  <si>
+    <t>9902160389</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Hello, Kiran</t>
   </si>
 </sst>
 </file>
@@ -96,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,19 +397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +422,14 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -411,8 +439,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -422,8 +456,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -433,8 +473,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -444,8 +490,14 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -454,6 +506,12 @@
       </c>
       <c r="C6" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -465,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
